--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\google_OCR\oepnpyxl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350503A9-2DCF-44EE-B84E-B834188294E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DC5561-EEDC-4176-B08B-A5C6DFE75969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23280" yWindow="1545" windowWidth="12975" windowHeight="12240" xr2:uid="{09794DAC-CE35-4907-A36F-1DF7019D831B}"/>
+    <workbookView xWindow="-14205" yWindow="1785" windowWidth="12975" windowHeight="12240" xr2:uid="{09794DAC-CE35-4907-A36F-1DF7019D831B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
